--- a/Project/Work breakdown structure.xlsx
+++ b/Project/Work breakdown structure.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\IdeaProjects\ganttproject\Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25130A6A-E13A-47C4-B98B-3C2D19F45815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,65 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>1.1 -Project creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1- Repositorie creation </t>
+  </si>
+  <si>
+    <t>1.1.2-Identify code smells</t>
+  </si>
+  <si>
+    <t>1.1.3- Identify GoF design patterns</t>
+  </si>
+  <si>
+    <t>1.1.4-Review each others work</t>
+  </si>
+  <si>
+    <t>1.1.5-Make report</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End date</t>
+  </si>
+  <si>
+    <t>Done by</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Phase 2</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martim Costa 64901, Ana Gadelha 59943 </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +90,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,12 +159,149 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +581,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44852</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44853</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44853</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44855</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44854</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44855</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44855</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44856</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44855</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44856</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project/Work breakdown structure.xlsx
+++ b/Project/Work breakdown structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\IdeaProjects\ganttproject\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25130A6A-E13A-47C4-B98B-3C2D19F45815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF75760-3227-44C5-9F77-DF51C9C803BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Task</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Phase 2</t>
-  </si>
-  <si>
-    <t>Ana</t>
   </si>
   <si>
     <t xml:space="preserve">Martim Costa 64901, Ana Gadelha 59943 </t>
@@ -269,6 +266,30 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -276,30 +297,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -585,7 +582,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,35 +596,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -639,15 +636,15 @@
       <c r="D3" s="2">
         <v>44853</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -657,15 +654,15 @@
       <c r="D4" s="2">
         <v>44855</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -675,15 +672,15 @@
       <c r="D5" s="2">
         <v>44855</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -693,15 +690,15 @@
       <c r="D6" s="2">
         <v>44856</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
@@ -711,22 +708,22 @@
       <c r="D7" s="2">
         <v>44856</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
